--- a/Schedule Record/第二周.xlsx
+++ b/Schedule Record/第二周.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\LiniKeair\Documents\BelongMe\Library\plan\Schedule Record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F22FFD2B-B85E-4613-98E7-4C953E8CB32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{F8FFF185-A1EE-4F8C-AA7E-D890720BEBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{3E1F9764-2DF8-491C-978B-C8DA7CE5D232}"/>
   </bookViews>
